--- a/econ_899_y3/hennessy_whited_2007/data_description.xlsx
+++ b/econ_899_y3/hennessy_whited_2007/data_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonhafften/Documents/UW Madison/problem_sets/econ_899_y3/hennessy_whited_2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97A8D0-70D8-D64A-9C90-823781CBE255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32DF2C3-C92C-A14C-957D-5C91EC9485BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="500" windowWidth="15680" windowHeight="15820" xr2:uid="{3D956E00-4D94-D643-B328-768026CB1208}"/>
+    <workbookView xWindow="5680" yWindow="760" windowWidth="15680" windowHeight="15820" xr2:uid="{3D956E00-4D94-D643-B328-768026CB1208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -225,8 +225,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +542,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +587,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -600,7 +598,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -611,7 +609,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -622,7 +620,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -644,7 +642,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -655,7 +653,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
